--- a/office_hours_schedule_spring_2024.xlsx
+++ b/office_hours_schedule_spring_2024.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Branden\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543db0bf43757e58/Documents/GitHub/umbcs.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE2BF0-72EC-4FA2-A44F-77279249700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC708387-4AFE-4071-A7F6-AB6A808B1E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E09930F5-AC3F-4AC4-A177-3D0D7F277B10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>UMass Boston Email</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Office Phone Number</t>
+  </si>
+  <si>
     <t>Office Hours</t>
-  </si>
-  <si>
-    <t>Soheil Sepahyar</t>
   </si>
   <si>
     <t>soheil.sepahyar@umb.edu</t>
@@ -61,9 +67,6 @@
 Friday: 1:00 PM - 2:00 PM</t>
   </si>
   <si>
-    <t>Glenn Hoffman</t>
-  </si>
-  <si>
     <t>Glenn.Hoffman@umb.edu</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
   </si>
   <si>
     <t>Tuesday and Thursday 11:00 - 12:00, 5:30 - 6:30</t>
-  </si>
-  <si>
-    <t>Wei Ding</t>
   </si>
   <si>
     <t>wei.ding@umb.edu</t>
@@ -92,9 +92,6 @@
 in person: Wednesday 3:00 PM - 4:00 PM</t>
   </si>
   <si>
-    <t>Temitayo Banjo</t>
-  </si>
-  <si>
     <t>Temitayo.Banjo@umb.edu</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>By appointment. Contact faculty to request a meeting.</t>
-  </si>
-  <si>
-    <t>Swaminathan Iyer</t>
   </si>
   <si>
     <t>swaminathan.iyer@umb.edu</t>
@@ -120,9 +114,6 @@
 Remote: Wed 10:00 AM - 12:00 PM (https://umassboston.zoom.us/j/8790346943?pwd=N1VCR0RnbnJhNVpBZEprbmdFcVF0Zz09)</t>
   </si>
   <si>
-    <t>Amanda Potasznik</t>
-  </si>
-  <si>
     <t>potasznik@cs.umb.edu</t>
   </si>
   <si>
@@ -130,6 +121,9 @@
   </si>
   <si>
     <t>In person: Tuesday and Thursday, 2:00-3:30pm</t>
+  </si>
+  <si>
+    <t>Glenn Hoffman</t>
   </si>
   <si>
     <t> Tuesday &amp; Thursday, 11:00 - 12:00 and 5:30 - 6:30</t>
@@ -206,25 +200,13 @@
   </si>
   <si>
     <t>In Person: Monday 11AM ~ 12:30PM / Tuesday 2:30pm ~ 4pm.</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>UMass Boston Email</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Office Phone Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,25 +229,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF424242"/>
-      <name val="Inherit"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -281,17 +251,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -300,7 +265,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -329,13 +294,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -355,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -621,286 +586,266 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E6668-33C8-4EAE-9465-B39674CE9B4A}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="66" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="77.25" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="72.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{052F73DF-D181-4B21-A962-CB807C1D3702}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{8ED8377A-8339-4A5C-A591-83966A9CB33E}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{CA67D2F6-CEBB-4B10-B79F-BEC8AF3D0544}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E4FFE6D8-9AE6-4BA0-8550-32129E51D2E6}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{ACC8C6A8-3147-4F73-A1FB-B36A0646FD52}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{D44A5351-EBE5-453B-A789-84DDCF8C45A1}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{29D86F3C-8936-4C8F-881F-4A8BBE4FB74B}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{8F4A9EB5-CBE1-4962-9CEC-C8FBBC646A3A}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{9E41651D-AEC4-4549-9610-1AE71B82123D}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{F7E63B94-F8D3-4614-8778-3BCDE591EAAC}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{A138FD97-BC97-4370-99A1-3FAA455DF1F7}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{C33F355C-AE08-4B07-BD74-277C821B1CCA}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{841FFB5E-F7CA-4B59-86FB-BBA358D2D029}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{BA5DDFEF-49AA-4D1F-8FF8-8AE36D7700F8}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5F5E2054-1A93-4EF0-91C5-C9D58A42AAD6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{8129AB28-F904-43CF-834C-2758998BC977}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1A465059-6131-45AB-B4B2-F1B05C1C879A}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{8FC8EE0A-540D-46D4-8D60-3A2A47E1A5EF}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{AACE8330-433A-459A-A292-EBF95007C77E}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{3DFD210B-1BB2-480E-A3F8-503B54E584BF}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{96B54102-D2DE-448E-983A-873A97076B76}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{F1876FA7-3E0E-425D-8052-BB6BFD1175CC}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{87B47F42-D02D-418A-9EDC-B3C8BF8CCCC5}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{0C2B2186-1C3D-43AE-9E8F-EB057D871E1B}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{5CAEB254-7898-4FBD-8DF6-B4D7A11CE559}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{FE29B214-4C77-47A7-BFF4-8BA3A5F0AFF5}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{B3D26364-91C2-411C-8635-FEF6C1410B11}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{46441B0F-3DCD-472F-B619-C3B7C8CB9359}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/office_hours_schedule_spring_2024.xlsx
+++ b/office_hours_schedule_spring_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543db0bf43757e58/Documents/GitHub/umbcs.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC708387-4AFE-4071-A7F6-AB6A808B1E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{DC708387-4AFE-4071-A7F6-AB6A808B1E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC95DB21-432B-42F9-9AC9-CBB25B753367}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E09930F5-AC3F-4AC4-A177-3D0D7F277B10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -200,13 +200,25 @@
   </si>
   <si>
     <t>In Person: Monday 11AM ~ 12:30PM / Tuesday 2:30pm ~ 4pm.</t>
+  </si>
+  <si>
+    <t>Soheil Sepahyar</t>
+  </si>
+  <si>
+    <t>Wei Ding</t>
+  </si>
+  <si>
+    <t>Temitayo Banjo</t>
+  </si>
+  <si>
+    <t>Swaminathan Iyer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +240,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,6 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -597,19 +616,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,9 +643,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -643,9 +660,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -660,9 +677,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -677,9 +694,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -694,9 +711,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -711,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -745,7 +762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -762,7 +779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -779,7 +796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -796,7 +813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -813,7 +830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -848,5 +865,6 @@
     <hyperlink ref="B13" r:id="rId14" xr:uid="{46441B0F-3DCD-472F-B619-C3B7C8CB9359}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>